--- a/encodingTimeSmallSelectivity.xlsx
+++ b/encodingTimeSmallSelectivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2355D342-1613-4908-8FCB-9750849C6FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC403F78-788D-4D62-A4F5-ACC8CCE1328A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B1E62D3-CFA6-4250-8216-430398B753AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7B1E62D3-CFA6-4250-8216-430398B753AC}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
@@ -24223,7 +24223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4150C4-5144-4581-A88C-0FA5D9F6F656}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
@@ -24786,8 +24786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0641D2AC-3EE6-4F68-83BA-4A6A45301DBB}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
